--- a/templates/BudgetTemplate.xlsx
+++ b/templates/BudgetTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minja Junior\Documents\NEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minja Junior\Documents\Demi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -381,14 +381,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -403,10 +404,20 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>1</formula1>
+      <formula2>999999999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>1</formula1>
+      <formula2>999999999</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;CN-E-P Budget Template</oddHeader>
+    <oddHeader>&amp;C&amp;"-,Bold Italic"&amp;14Demi Events - Budget Template</oddHeader>
     <oddFooter>&amp;C&amp;D</oddFooter>
   </headerFooter>
 </worksheet>

--- a/templates/BudgetTemplate.xlsx
+++ b/templates/BudgetTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minja Junior\Documents\Demi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.felix\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,16 +47,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -64,15 +77,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -379,30 +427,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
